--- a/ЦТ/ЛР_3_Исследование сигналов системы цветного телевидения/data.xlsx
+++ b/ЦТ/ЛР_3_Исследование сигналов системы цветного телевидения/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЦТ\ЛР_3_Исследование сигналов системы цветного телевидения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA9D8F8-0AA0-42D1-8864-C4144C264DDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920F82F8-AE12-4174-A325-4E7887B66B7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Белая</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>100 25 100 25</t>
+  </si>
+  <si>
+    <t>пурпурный</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>бордовый</t>
+  </si>
+  <si>
+    <t>фиолетовый</t>
   </si>
 </sst>
 </file>
@@ -512,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1109,6 +1121,228 @@
         <v>0.41600000000000004</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5">
+        <f>-0.51*B25-0.19*B26</f>
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:G27" si="11">-0.51*C25-0.19*C26</f>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.33660000000000001</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.36820000000000003</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.38660000000000005</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.16399999999999998</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B24+B25</f>
+        <v>0.44</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:G28" si="12">C24+C25</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="12"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="12"/>
+        <v>0.44</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5">
+        <f>B24+B27</f>
+        <v>0.14100000000000001</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" ref="C29:G29" si="13">C24+C27</f>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="13"/>
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="13"/>
+        <v>0.19180000000000003</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="13"/>
+        <v>-2.6600000000000068E-2</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="13"/>
+        <v>9.600000000000003E-2</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5">
+        <f>B24+B26</f>
+        <v>0.94</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" ref="C30:G30" si="14">C24+C26</f>
+        <v>1.02</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="14"/>
+        <v>0.78</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="14"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="14"/>
+        <v>0.64</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
